--- a/flower_material_list.xlsx
+++ b/flower_material_list.xlsx
@@ -638,6 +638,73 @@
     </r>
     <r>
       <rPr>
+        <b val="false"/>
+        <i val="false"/>
+        <u val="none"/>
+        <rFont val="Segoe UI"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B0BM53KZDZ/ref=twister_B0BM52HX22?_encoding=UTF8&amp;psc=1</t>
+  </si>
+  <si>
+    <t>Resin 3d printer</t>
+  </si>
+  <si>
+    <t>Used to print Resin components</t>
+  </si>
+  <si>
+    <t>FDM 3d printer</t>
+  </si>
+  <si>
+    <t>Used to print flower body and tops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description </t>
+  </si>
+  <si>
+    <t>PNY 32GB Elite Class 10 U1 Micro SD card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raspberry Pi 5 </t>
+  </si>
+  <si>
+    <t>1 per system</t>
+  </si>
+  <si>
+    <t>Central Control System</t>
+  </si>
+  <si>
+    <t>Computer Peripherals</t>
+  </si>
+  <si>
+    <t>Monitor mouse etc to interact with Pi 5</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B0CRSNCJ6Y/ref=ppx_yo_dt_b_search_asin_title?ie=UTF8&amp;th=1</t>
+  </si>
+  <si>
+    <t>Raspberry Pi 5 Cana Kit</t>
+  </si>
+  <si>
+    <t>5 V 2.5 amp Power supply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porwer cord for pi zero </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEAO TECHNOLOGY CO., LTD </t>
+  </si>
+  <si>
+    <r>
+      <t>5V 2.5A Switching Power Supply with 20AWG MicroUSB Cable : ID 1995 : Adafruit Industries, Unique &amp; fun DIY electronics and kits</t>
+    </r>
+    <r>
+      <rPr>
         <rFont val="Segoe UI"/>
         <sz val="9"/>
         <color rgb="FF000000"/>
@@ -647,29 +714,14 @@
     </r>
   </si>
   <si>
-    <t>https://www.amazon.com/dp/B0BM53KZDZ/ref=twister_B0BM52HX22?_encoding=UTF8&amp;psc=1</t>
-  </si>
-  <si>
-    <t>Resin 3d printer</t>
-  </si>
-  <si>
-    <t>Used to print Resin components</t>
-  </si>
-  <si>
-    <t>FDM 3d printer</t>
-  </si>
-  <si>
-    <t>Used to print flower body and tops</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description </t>
+    <t>as needed for Pi 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -813,6 +865,11 @@
       <sz val="18"/>
       <name val="Segoe UI"/>
       <color rgb="FF0F1111"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
       <sz val="9"/>
@@ -887,7 +944,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1036,6 +1093,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
@@ -1249,8 +1315,8 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView workbookViewId="0" topLeftCell="A11">
+      <selection activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1298,7 +1364,7 @@
     </row>
     <row r="3">
       <c r="A3" s="40" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="B3" s="40" t="s">
         <v>10</v>
@@ -1314,333 +1380,375 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="40" t="s">
-        <v>98</v>
+      <c r="A4" s="39" t="s">
+        <v>173</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>102</v>
+        <v>174</v>
       </c>
       <c r="C4" s="40">
         <v>1</v>
       </c>
-      <c r="D4" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>105</v>
+      <c r="D4" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>103</v>
+        <v>98</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>102</v>
       </c>
       <c r="C5" s="40">
         <v>1</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="40">
+        <v>1</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B7" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C7" s="40">
         <v>5</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D7" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E7" s="25" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7"/>
-    </row>
     <row r="8">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8"/>
+      <c r="A8" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="23" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="40">
-        <v>1</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" ht="23.25">
-      <c r="A11" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" s="40">
-        <v>2</v>
-      </c>
-      <c r="D11" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="E11" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="40" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="C12" s="40">
         <v>1</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" ht="23.25">
+      <c r="A13" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="40">
+        <v>2</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="40">
+        <v>1</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B16" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40" t="s">
+      <c r="C16" s="40"/>
+      <c r="D16" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E16" s="18" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="E16" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="39" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="E17" s="50" t="s">
-        <v>158</v>
+        <v>116</v>
+      </c>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="39" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>161</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>128</v>
+        <v>116</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="E19" s="50" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B21" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="D19" s="40"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="23" t="s">
+      <c r="D21" s="40"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="23" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="B21" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="C21" s="40">
-        <v>1</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="B22" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" s="40">
-        <v>1</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="E22"/>
     </row>
     <row r="23">
       <c r="A23" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="B23" s="45"/>
+        <v>126</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>127</v>
+      </c>
       <c r="C23" s="40">
         <v>1</v>
       </c>
       <c r="D23" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="40">
+        <v>1</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" s="45"/>
+      <c r="C25" s="40">
+        <v>1</v>
+      </c>
+      <c r="D25" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="E23" s="32" t="s">
+      <c r="E25" s="32" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="C24" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="D25" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="E25" s="34" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C28" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D28" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="E26" s="34" t="s">
+      <c r="E28" s="34" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="27" customHeight="1" ht="20.25">
-      <c r="A27" s="39" t="s">
+    <row r="29" customHeight="1" ht="20.25">
+      <c r="A29" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="C27" s="39">
+      <c r="C29" s="39">
         <v>1</v>
       </c>
-      <c r="D27" s="39" t="s">
+      <c r="D29" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="E27" s="32" t="s">
+      <c r="E29" s="32" t="s">
         <v>143</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId22"/>
-    <hyperlink ref="E5" r:id="rId23" display="https://www.adafruit.com/product/2167#description"/>
-    <hyperlink ref="E4" r:id="rId24" display="https://www.adafruit.com/product/5733"/>
+    <hyperlink ref="E6" r:id="rId23" display="https://www.adafruit.com/product/2167#description"/>
+    <hyperlink ref="E5" r:id="rId24" display="https://www.adafruit.com/product/5733"/>
     <hyperlink ref="E2" r:id="rId25" display="https://www.adafruit.com/product/3708"/>
-    <hyperlink ref="E6" r:id="rId26"/>
-    <hyperlink ref="E14" r:id="rId27" display="https://www.amazon.com/dp/B00J0GQ2OS/ref=twister_B09WW4Z413?_encoding=UTF8&amp;psc=1"/>
-    <hyperlink ref="E21" r:id="rId28"/>
-    <hyperlink ref="E23" r:id="rId29"/>
-    <hyperlink ref="E27" r:id="rId30"/>
-    <hyperlink ref="E12" r:id="rId31"/>
-    <hyperlink ref="E10" r:id="rId32"/>
-    <hyperlink ref="A15" r:id="rId33"/>
-    <hyperlink ref="E15" r:id="rId34"/>
-    <hyperlink ref="E17" r:id="rId35"/>
+    <hyperlink ref="E7" r:id="rId26"/>
+    <hyperlink ref="E16" r:id="rId27" display="https://www.amazon.com/dp/B00J0GQ2OS/ref=twister_B09WW4Z413?_encoding=UTF8&amp;psc=1"/>
+    <hyperlink ref="E23" r:id="rId28"/>
+    <hyperlink ref="E25" r:id="rId29"/>
+    <hyperlink ref="E29" r:id="rId30"/>
+    <hyperlink ref="E14" r:id="rId31"/>
+    <hyperlink ref="E12" r:id="rId32"/>
+    <hyperlink ref="A17" r:id="rId33"/>
+    <hyperlink ref="E17" r:id="rId34"/>
+    <hyperlink ref="E19" r:id="rId35"/>
+    <hyperlink ref="E4" r:id="rId36"/>
   </hyperlinks>
 </worksheet>
 </file>